--- a/Symptom_Composition_by_ICD_Gas_Overlap.xlsx
+++ b/Symptom_Composition_by_ICD_Gas_Overlap.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="C3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>7.9</v>
       </c>
       <c r="C4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D4" t="n">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="C5" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="D5" t="n">
-        <v>9.699999999999999</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>14.4</v>
       </c>
       <c r="C6" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D6" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="C7" t="n">
         <v>1.7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="C8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D8" t="n">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="9">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="C9" t="n">
         <v>4.1</v>
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.9</v>
+        <v>16.1</v>
       </c>
       <c r="C10" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D10" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.5</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>51.4</v>
+        <v>51.6</v>
       </c>
       <c r="D11" t="n">
-        <v>44.4</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="C12" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D12" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
     </row>
   </sheetData>

--- a/Symptom_Composition_by_ICD_Gas_Overlap.xlsx
+++ b/Symptom_Composition_by_ICD_Gas_Overlap.xlsx
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>4.4</v>

--- a/Symptom_Composition_by_ICD_Gas_Overlap.xlsx
+++ b/Symptom_Composition_by_ICD_Gas_Overlap.xlsx
@@ -458,97 +458,97 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Abnormal test result</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.300000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="D2" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="C3" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="C4" t="n">
         <v>4.4</v>
       </c>
       <c r="D4" t="n">
-        <v>9.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.3</v>
+        <v>7.5</v>
       </c>
       <c r="C5" t="n">
-        <v>6.3</v>
+        <v>3.9</v>
       </c>
       <c r="D5" t="n">
-        <v>11.2</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.4</v>
+        <v>9.9</v>
       </c>
       <c r="C6" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Eye/Ear</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.5</v>
+        <v>14.7</v>
       </c>
       <c r="C7" t="n">
-        <v>1.7</v>
+        <v>6.8</v>
       </c>
       <c r="D7" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C8" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D8" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="C9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D9" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.1</v>
+        <v>14.5</v>
       </c>
       <c r="C10" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>20.5</v>
       </c>
       <c r="C11" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="D11" t="n">
-        <v>40.9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="C12" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D12" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>

--- a/Symptom_Composition_by_ICD_Gas_Overlap.xlsx
+++ b/Symptom_Composition_by_ICD_Gas_Overlap.xlsx
@@ -458,177 +458,177 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Abnormal test result</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="D3" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="C4" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="D4" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.5</v>
+        <v>10.6</v>
       </c>
       <c r="C5" t="n">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="D5" t="n">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.9</v>
+        <v>12.6</v>
       </c>
       <c r="C6" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>9.5</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.7</v>
+        <v>5.2</v>
       </c>
       <c r="C7" t="n">
-        <v>6.8</v>
+        <v>3.9</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Symptom – Genitourinary</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="C8" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Symptom – Nervous</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.1</v>
+        <v>11.4</v>
       </c>
       <c r="C9" t="n">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>3.8</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Nervous</t>
+          <t>Symptom – Respiratory</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.5</v>
+        <v>26.5</v>
       </c>
       <c r="C10" t="n">
-        <v>12.4</v>
+        <v>51.8</v>
       </c>
       <c r="D10" t="n">
-        <v>8.199999999999999</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Respiratory</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.5</v>
+        <v>2.6</v>
       </c>
       <c r="C11" t="n">
-        <v>51.5</v>
+        <v>1.4</v>
       </c>
       <c r="D11" t="n">
-        <v>44</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Uncodable/Unknown</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="C12" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="D12" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Symptom_Composition_by_ICD_Gas_Overlap.xlsx
+++ b/Symptom_Composition_by_ICD_Gas_Overlap.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="C2" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D2" t="n">
         <v>3.5</v>
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.699999999999999</v>
+        <v>14.9</v>
       </c>
       <c r="C3" t="n">
-        <v>4.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>4.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="4">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C4" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="D4" t="n">
         <v>7.4</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.6</v>
+        <v>10.1</v>
       </c>
       <c r="C5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D5" t="n">
         <v>7.8</v>
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D6" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="7">
@@ -542,29 +542,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="C7" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D7" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Symptom – Musculoskeletal</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="C8" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="D8" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="D9" t="n">
-        <v>10.9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="C10" t="n">
-        <v>51.8</v>
+        <v>51.3</v>
       </c>
       <c r="D10" t="n">
-        <v>45.2</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="C11" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D11" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>

--- a/Symptom_Composition_by_ICD_Gas_Overlap.xlsx
+++ b/Symptom_Composition_by_ICD_Gas_Overlap.xlsx
@@ -458,113 +458,113 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Administrative</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.9</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="D2" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.9</v>
+        <v>6.4</v>
       </c>
       <c r="C3" t="n">
-        <v>8.300000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="D3" t="n">
-        <v>6.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.8</v>
+        <v>18.4</v>
       </c>
       <c r="C4" t="n">
-        <v>5.2</v>
+        <v>7.5</v>
       </c>
       <c r="D4" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.1</v>
+        <v>6.4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="D5" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="D6" t="n">
-        <v>6.3</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C7" t="n">
         <v>4.8</v>
       </c>
-      <c r="C7" t="n">
-        <v>3.6</v>
-      </c>
       <c r="D7" t="n">
-        <v>5.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Musculoskeletal</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="C8" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="D8" t="n">
-        <v>2.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>11.7</v>
       </c>
       <c r="C9" t="n">
-        <v>11.5</v>
+        <v>12.3</v>
       </c>
       <c r="D9" t="n">
-        <v>10.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.3</v>
+        <v>27.4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.3</v>
+        <v>57.8</v>
       </c>
       <c r="D10" t="n">
-        <v>44.8</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="C11" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Symptom_Composition_by_ICD_Gas_Overlap.xlsx
+++ b/Symptom_Composition_by_ICD_Gas_Overlap.xlsx
@@ -458,113 +458,113 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Administrative</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.4</v>
+        <v>15.2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>3.6</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.4</v>
+        <v>6.9</v>
       </c>
       <c r="C4" t="n">
-        <v>7.5</v>
+        <v>5.3</v>
       </c>
       <c r="D4" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
         <v>6.4</v>
       </c>
-      <c r="C5" t="n">
-        <v>4.4</v>
-      </c>
       <c r="D5" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>12.6</v>
       </c>
       <c r="C6" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="D6" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.9</v>
+        <v>4.7</v>
       </c>
       <c r="C7" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Symptom – Musculoskeletal</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="C8" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="D8" t="n">
-        <v>6.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C9" t="n">
         <v>11.7</v>
       </c>
-      <c r="C9" t="n">
-        <v>12.3</v>
-      </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="C10" t="n">
-        <v>57.8</v>
+        <v>51.5</v>
       </c>
       <c r="D10" t="n">
-        <v>40.5</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="C12" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
